--- a/datasets/nadpark-significancy/mmc6.xlsx
+++ b/datasets/nadpark-significancy/mmc6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hvl365-my.sharepoint.com/personal/585090_stud_hvl_no/Documents/Masteroppgave/Kode/parkinsonbayes/data/nadpark/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hvl365-my.sharepoint.com/personal/585090_stud_hvl_no/Documents/Masteroppgave/Kode/parkinsonbayes/datasets/nadpark-significancy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{5920782C-FFA2-48E3-BD04-EBDFFDD513B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B75A6C03-5A5B-48FD-BD7B-54E6ABF959BE}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{5920782C-FFA2-48E3-BD04-EBDFFDD513B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8634465-F11D-4A55-8099-30ABC367DC53}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="157">
   <si>
     <r>
       <t>Figure 1D: Relative total NAD levels normalized to ATP-</t>
@@ -1036,7 +1036,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1196,6 +1196,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1262,35 +1265,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1298,10 +1292,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1309,6 +1312,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1621,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="B4:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,12 +1640,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="46" t="s">
@@ -1648,10 +1654,10 @@
       <c r="C3" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="61"/>
+      <c r="E3" s="62"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="47"/>
@@ -2191,45 +2197,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
       <c r="F2"/>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
       <c r="L2" s="49"/>
-      <c r="M2" s="73" t="s">
+      <c r="M2" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="N2" s="74"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="R2" s="77" t="s">
+      <c r="N2" s="75"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="R2" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Z2" s="70" t="s">
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Z2" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="73"/>
       <c r="AG2" s="19"/>
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.25">
@@ -2287,7 +2293,7 @@
       </c>
     </row>
     <row r="4" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="67" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -2312,7 +2318,7 @@
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
-      <c r="M4" s="75" t="s">
+      <c r="M4" s="76" t="s">
         <v>40</v>
       </c>
       <c r="N4" s="53" t="s">
@@ -2324,7 +2330,7 @@
       <c r="P4" s="13">
         <v>-3</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="77" t="s">
         <v>41</v>
       </c>
       <c r="S4" s="7" t="s">
@@ -2338,7 +2344,7 @@
       </c>
       <c r="V4"/>
       <c r="W4"/>
-      <c r="Z4" s="69" t="s">
+      <c r="Z4" s="70" t="s">
         <v>41</v>
       </c>
       <c r="AA4" s="2" t="s">
@@ -2352,7 +2358,7 @@
       </c>
     </row>
     <row r="5" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2375,7 +2381,7 @@
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
-      <c r="M5" s="75"/>
+      <c r="M5" s="76"/>
       <c r="N5" s="54" t="s">
         <v>42</v>
       </c>
@@ -2385,7 +2391,7 @@
       <c r="P5" s="12">
         <v>-6</v>
       </c>
-      <c r="R5" s="76"/>
+      <c r="R5" s="77"/>
       <c r="S5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2397,7 +2403,7 @@
       </c>
       <c r="V5"/>
       <c r="W5"/>
-      <c r="Z5" s="69"/>
+      <c r="Z5" s="70"/>
       <c r="AA5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2409,7 +2415,7 @@
       </c>
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B6" s="67"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2432,7 +2438,7 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
-      <c r="M6" s="75"/>
+      <c r="M6" s="76"/>
       <c r="N6" s="54" t="s">
         <v>23</v>
       </c>
@@ -2442,7 +2448,7 @@
       <c r="P6" s="12">
         <v>-1</v>
       </c>
-      <c r="R6" s="76"/>
+      <c r="R6" s="77"/>
       <c r="S6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2454,7 +2460,7 @@
       </c>
       <c r="V6"/>
       <c r="W6"/>
-      <c r="Z6" s="69"/>
+      <c r="Z6" s="70"/>
       <c r="AA6" s="2" t="s">
         <v>9</v>
       </c>
@@ -2466,7 +2472,7 @@
       </c>
     </row>
     <row r="7" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B7" s="67"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="7" t="s">
         <v>10</v>
       </c>
@@ -2489,7 +2495,7 @@
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
-      <c r="M7" s="75"/>
+      <c r="M7" s="76"/>
       <c r="N7" s="54" t="s">
         <v>24</v>
       </c>
@@ -2499,7 +2505,7 @@
       <c r="P7" s="12">
         <v>3</v>
       </c>
-      <c r="R7" s="76"/>
+      <c r="R7" s="77"/>
       <c r="S7" s="7" t="s">
         <v>10</v>
       </c>
@@ -2511,7 +2517,7 @@
       </c>
       <c r="V7"/>
       <c r="W7"/>
-      <c r="Z7" s="69"/>
+      <c r="Z7" s="70"/>
       <c r="AA7" s="2" t="s">
         <v>10</v>
       </c>
@@ -2523,7 +2529,7 @@
       </c>
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B8" s="67"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
@@ -2546,7 +2552,7 @@
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
-      <c r="M8" s="75"/>
+      <c r="M8" s="76"/>
       <c r="N8" s="54" t="s">
         <v>25</v>
       </c>
@@ -2556,7 +2562,7 @@
       <c r="P8" s="12">
         <v>2</v>
       </c>
-      <c r="R8" s="76"/>
+      <c r="R8" s="77"/>
       <c r="S8" s="7" t="s">
         <v>11</v>
       </c>
@@ -2568,7 +2574,7 @@
       </c>
       <c r="V8"/>
       <c r="W8"/>
-      <c r="Z8" s="69"/>
+      <c r="Z8" s="70"/>
       <c r="AA8" s="2" t="s">
         <v>11</v>
       </c>
@@ -2580,7 +2586,7 @@
       </c>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B9" s="67"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="7" t="s">
         <v>12</v>
       </c>
@@ -2603,7 +2609,7 @@
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
-      <c r="M9" s="75"/>
+      <c r="M9" s="76"/>
       <c r="N9" s="54" t="s">
         <v>26</v>
       </c>
@@ -2613,7 +2619,7 @@
       <c r="P9" s="12">
         <v>0</v>
       </c>
-      <c r="R9" s="76"/>
+      <c r="R9" s="77"/>
       <c r="S9" s="7" t="s">
         <v>12</v>
       </c>
@@ -2625,7 +2631,7 @@
       </c>
       <c r="V9"/>
       <c r="W9"/>
-      <c r="Z9" s="69"/>
+      <c r="Z9" s="70"/>
       <c r="AA9" s="2" t="s">
         <v>12</v>
       </c>
@@ -2637,7 +2643,7 @@
       </c>
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B10" s="67"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
@@ -2660,7 +2666,7 @@
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
-      <c r="M10" s="75"/>
+      <c r="M10" s="76"/>
       <c r="N10" s="54" t="s">
         <v>27</v>
       </c>
@@ -2670,7 +2676,7 @@
       <c r="P10" s="12">
         <v>-4</v>
       </c>
-      <c r="R10" s="76"/>
+      <c r="R10" s="77"/>
       <c r="S10" s="7" t="s">
         <v>13</v>
       </c>
@@ -2682,7 +2688,7 @@
       </c>
       <c r="V10"/>
       <c r="W10"/>
-      <c r="Z10" s="69"/>
+      <c r="Z10" s="70"/>
       <c r="AA10" s="2" t="s">
         <v>13</v>
       </c>
@@ -2694,7 +2700,7 @@
       </c>
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B11" s="67"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="7" t="s">
         <v>43</v>
       </c>
@@ -2717,7 +2723,7 @@
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
-      <c r="M11" s="75"/>
+      <c r="M11" s="76"/>
       <c r="N11" s="54" t="s">
         <v>29</v>
       </c>
@@ -2727,7 +2733,7 @@
       <c r="P11" s="12">
         <v>-2</v>
       </c>
-      <c r="R11" s="76"/>
+      <c r="R11" s="77"/>
       <c r="S11" s="7" t="s">
         <v>43</v>
       </c>
@@ -2739,7 +2745,7 @@
       </c>
       <c r="V11"/>
       <c r="W11"/>
-      <c r="Z11" s="69"/>
+      <c r="Z11" s="70"/>
       <c r="AA11" s="2" t="s">
         <v>43</v>
       </c>
@@ -2751,7 +2757,7 @@
       </c>
     </row>
     <row r="12" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B12" s="67"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2774,7 +2780,7 @@
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
-      <c r="M12" s="75"/>
+      <c r="M12" s="76"/>
       <c r="N12" s="54" t="s">
         <v>30</v>
       </c>
@@ -2784,7 +2790,7 @@
       <c r="P12" s="12">
         <v>-1</v>
       </c>
-      <c r="R12" s="76"/>
+      <c r="R12" s="77"/>
       <c r="S12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2796,7 +2802,7 @@
       </c>
       <c r="V12"/>
       <c r="W12"/>
-      <c r="Z12" s="69"/>
+      <c r="Z12" s="70"/>
       <c r="AA12" s="2" t="s">
         <v>14</v>
       </c>
@@ -2808,7 +2814,7 @@
       </c>
     </row>
     <row r="13" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B13" s="67"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="7" t="s">
         <v>15</v>
       </c>
@@ -2831,7 +2837,7 @@
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
-      <c r="M13" s="75"/>
+      <c r="M13" s="76"/>
       <c r="N13" s="54" t="s">
         <v>32</v>
       </c>
@@ -2841,7 +2847,7 @@
       <c r="P13" s="12">
         <v>3</v>
       </c>
-      <c r="R13" s="76"/>
+      <c r="R13" s="77"/>
       <c r="S13" s="7" t="s">
         <v>15</v>
       </c>
@@ -2853,7 +2859,7 @@
       </c>
       <c r="V13"/>
       <c r="W13"/>
-      <c r="Z13" s="69"/>
+      <c r="Z13" s="70"/>
       <c r="AA13" s="2" t="s">
         <v>15</v>
       </c>
@@ -2865,7 +2871,7 @@
       </c>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B14" s="67"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="7" t="s">
         <v>16</v>
       </c>
@@ -2886,7 +2892,7 @@
       <c r="N14"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
-      <c r="R14" s="76"/>
+      <c r="R14" s="77"/>
       <c r="S14" s="7" t="s">
         <v>16</v>
       </c>
@@ -2898,7 +2904,7 @@
       </c>
       <c r="V14"/>
       <c r="W14"/>
-      <c r="Z14" s="69"/>
+      <c r="Z14" s="70"/>
       <c r="AA14" s="2" t="s">
         <v>16</v>
       </c>
@@ -2910,7 +2916,7 @@
       </c>
     </row>
     <row r="15" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="67"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="7" t="s">
         <v>17</v>
       </c>
@@ -2927,7 +2933,7 @@
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
-      <c r="M15" s="69" t="s">
+      <c r="M15" s="70" t="s">
         <v>44</v>
       </c>
       <c r="N15" s="9" t="s">
@@ -2939,7 +2945,7 @@
       <c r="P15" s="12">
         <v>10</v>
       </c>
-      <c r="R15" s="76"/>
+      <c r="R15" s="77"/>
       <c r="S15" s="7" t="s">
         <v>17</v>
       </c>
@@ -2951,7 +2957,7 @@
       </c>
       <c r="V15"/>
       <c r="W15"/>
-      <c r="Z15" s="69"/>
+      <c r="Z15" s="70"/>
       <c r="AA15" s="2" t="s">
         <v>17</v>
       </c>
@@ -2963,7 +2969,7 @@
       </c>
     </row>
     <row r="16" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B16" s="67"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="7" t="s">
         <v>18</v>
       </c>
@@ -2980,7 +2986,7 @@
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
-      <c r="M16" s="69"/>
+      <c r="M16" s="70"/>
       <c r="N16" s="9" t="s">
         <v>21</v>
       </c>
@@ -2990,7 +2996,7 @@
       <c r="P16" s="12">
         <v>3</v>
       </c>
-      <c r="R16" s="76"/>
+      <c r="R16" s="77"/>
       <c r="S16" s="7" t="s">
         <v>18</v>
       </c>
@@ -3002,7 +3008,7 @@
       </c>
       <c r="V16"/>
       <c r="W16"/>
-      <c r="Z16" s="69"/>
+      <c r="Z16" s="70"/>
       <c r="AA16" s="2" t="s">
         <v>18</v>
       </c>
@@ -3014,7 +3020,7 @@
       </c>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B17" s="67"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="7" t="s">
         <v>19</v>
       </c>
@@ -3031,7 +3037,7 @@
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
-      <c r="M17" s="69"/>
+      <c r="M17" s="70"/>
       <c r="N17" s="9" t="s">
         <v>46</v>
       </c>
@@ -3041,7 +3047,7 @@
       <c r="P17" s="12">
         <v>-2</v>
       </c>
-      <c r="R17" s="76"/>
+      <c r="R17" s="77"/>
       <c r="S17" s="7" t="s">
         <v>19</v>
       </c>
@@ -3053,7 +3059,7 @@
       </c>
       <c r="V17"/>
       <c r="W17"/>
-      <c r="Z17" s="69"/>
+      <c r="Z17" s="70"/>
       <c r="AA17" s="2" t="s">
         <v>19</v>
       </c>
@@ -3065,7 +3071,7 @@
       </c>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B18" s="67"/>
+      <c r="B18" s="68"/>
       <c r="C18" s="7" t="s">
         <v>20</v>
       </c>
@@ -3082,7 +3088,7 @@
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
-      <c r="M18" s="69"/>
+      <c r="M18" s="70"/>
       <c r="N18" s="9" t="s">
         <v>47</v>
       </c>
@@ -3092,7 +3098,7 @@
       <c r="P18" s="12">
         <v>-2</v>
       </c>
-      <c r="R18" s="76"/>
+      <c r="R18" s="77"/>
       <c r="S18" s="7" t="s">
         <v>20</v>
       </c>
@@ -3104,7 +3110,7 @@
       </c>
       <c r="V18"/>
       <c r="W18"/>
-      <c r="Z18" s="69"/>
+      <c r="Z18" s="70"/>
       <c r="AA18" s="2" t="s">
         <v>20</v>
       </c>
@@ -3116,7 +3122,7 @@
       </c>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B19" s="68"/>
+      <c r="B19" s="69"/>
       <c r="C19" s="16" t="s">
         <v>144</v>
       </c>
@@ -3159,7 +3165,7 @@
       <c r="L20"/>
       <c r="M20"/>
       <c r="N20"/>
-      <c r="R20" s="69" t="s">
+      <c r="R20" s="70" t="s">
         <v>3</v>
       </c>
       <c r="S20" s="7" t="s">
@@ -3173,7 +3179,7 @@
       </c>
       <c r="V20"/>
       <c r="W20"/>
-      <c r="Z20" s="69" t="s">
+      <c r="Z20" s="70" t="s">
         <v>3</v>
       </c>
       <c r="AA20" s="2" t="s">
@@ -3187,7 +3193,7 @@
       </c>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="70" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -3207,7 +3213,7 @@
       <c r="K21" s="57"/>
       <c r="L21" s="57"/>
       <c r="O21" s="43"/>
-      <c r="R21" s="69"/>
+      <c r="R21" s="70"/>
       <c r="S21" s="7" t="s">
         <v>21</v>
       </c>
@@ -3219,7 +3225,7 @@
       </c>
       <c r="V21"/>
       <c r="W21"/>
-      <c r="Z21" s="69"/>
+      <c r="Z21" s="70"/>
       <c r="AA21" s="2" t="s">
         <v>21</v>
       </c>
@@ -3231,7 +3237,7 @@
       </c>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B22" s="69"/>
+      <c r="B22" s="70"/>
       <c r="C22" s="7" t="s">
         <v>21</v>
       </c>
@@ -3251,7 +3257,7 @@
       <c r="M22" s="45"/>
       <c r="N22" s="45"/>
       <c r="O22" s="43"/>
-      <c r="R22" s="69"/>
+      <c r="R22" s="70"/>
       <c r="S22" s="7" t="s">
         <v>22</v>
       </c>
@@ -3263,7 +3269,7 @@
       </c>
       <c r="V22"/>
       <c r="W22"/>
-      <c r="Z22" s="69"/>
+      <c r="Z22" s="70"/>
       <c r="AA22" s="2" t="s">
         <v>22</v>
       </c>
@@ -3275,7 +3281,7 @@
       </c>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B23" s="69"/>
+      <c r="B23" s="70"/>
       <c r="C23" s="7" t="s">
         <v>22</v>
       </c>
@@ -3294,7 +3300,7 @@
       <c r="L23" s="57"/>
       <c r="M23" s="45"/>
       <c r="N23" s="45"/>
-      <c r="R23" s="69"/>
+      <c r="R23" s="70"/>
       <c r="S23" s="7" t="s">
         <v>42</v>
       </c>
@@ -3306,7 +3312,7 @@
       </c>
       <c r="V23"/>
       <c r="W23"/>
-      <c r="Z23" s="69"/>
+      <c r="Z23" s="70"/>
       <c r="AA23" s="2" t="s">
         <v>42</v>
       </c>
@@ -3318,7 +3324,7 @@
       </c>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B24" s="69"/>
+      <c r="B24" s="70"/>
       <c r="C24" s="7" t="s">
         <v>42</v>
       </c>
@@ -3338,7 +3344,7 @@
       <c r="M24" s="45"/>
       <c r="N24" s="45"/>
       <c r="O24" s="43"/>
-      <c r="R24" s="69"/>
+      <c r="R24" s="70"/>
       <c r="S24" s="7" t="s">
         <v>23</v>
       </c>
@@ -3350,7 +3356,7 @@
       </c>
       <c r="V24"/>
       <c r="W24"/>
-      <c r="Z24" s="69"/>
+      <c r="Z24" s="70"/>
       <c r="AA24" s="2" t="s">
         <v>23</v>
       </c>
@@ -3362,7 +3368,7 @@
       </c>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B25" s="69"/>
+      <c r="B25" s="70"/>
       <c r="C25" s="7" t="s">
         <v>23</v>
       </c>
@@ -3382,7 +3388,7 @@
       <c r="M25" s="45"/>
       <c r="N25" s="45"/>
       <c r="O25" s="43"/>
-      <c r="R25" s="69"/>
+      <c r="R25" s="70"/>
       <c r="S25" s="7" t="s">
         <v>46</v>
       </c>
@@ -3394,7 +3400,7 @@
       </c>
       <c r="V25"/>
       <c r="W25"/>
-      <c r="Z25" s="69"/>
+      <c r="Z25" s="70"/>
       <c r="AA25" s="2" t="s">
         <v>46</v>
       </c>
@@ -3406,7 +3412,7 @@
       </c>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B26" s="69"/>
+      <c r="B26" s="70"/>
       <c r="C26" s="7" t="s">
         <v>46</v>
       </c>
@@ -3424,7 +3430,7 @@
       <c r="K26" s="57"/>
       <c r="L26" s="57"/>
       <c r="O26" s="43"/>
-      <c r="R26" s="69"/>
+      <c r="R26" s="70"/>
       <c r="S26" s="7" t="s">
         <v>24</v>
       </c>
@@ -3436,7 +3442,7 @@
       </c>
       <c r="V26"/>
       <c r="W26"/>
-      <c r="Z26" s="69"/>
+      <c r="Z26" s="70"/>
       <c r="AA26" s="2" t="s">
         <v>24</v>
       </c>
@@ -3448,7 +3454,7 @@
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B27" s="69"/>
+      <c r="B27" s="70"/>
       <c r="C27" s="7" t="s">
         <v>24</v>
       </c>
@@ -3468,7 +3474,7 @@
       <c r="M27" s="45"/>
       <c r="N27" s="45"/>
       <c r="O27" s="43"/>
-      <c r="R27" s="69"/>
+      <c r="R27" s="70"/>
       <c r="S27" s="7" t="s">
         <v>25</v>
       </c>
@@ -3480,7 +3486,7 @@
       </c>
       <c r="V27"/>
       <c r="W27"/>
-      <c r="Z27" s="69"/>
+      <c r="Z27" s="70"/>
       <c r="AA27" s="2" t="s">
         <v>25</v>
       </c>
@@ -3492,7 +3498,7 @@
       </c>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B28" s="69"/>
+      <c r="B28" s="70"/>
       <c r="C28" s="7" t="s">
         <v>25</v>
       </c>
@@ -3512,7 +3518,7 @@
       <c r="M28" s="45"/>
       <c r="N28" s="45"/>
       <c r="O28" s="43"/>
-      <c r="R28" s="69"/>
+      <c r="R28" s="70"/>
       <c r="S28" s="7" t="s">
         <v>26</v>
       </c>
@@ -3524,7 +3530,7 @@
       </c>
       <c r="V28"/>
       <c r="W28"/>
-      <c r="Z28" s="69"/>
+      <c r="Z28" s="70"/>
       <c r="AA28" s="2" t="s">
         <v>26</v>
       </c>
@@ -3536,7 +3542,7 @@
       </c>
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B29" s="69"/>
+      <c r="B29" s="70"/>
       <c r="C29" s="7" t="s">
         <v>26</v>
       </c>
@@ -3556,7 +3562,7 @@
       <c r="M29" s="45"/>
       <c r="N29" s="45"/>
       <c r="O29" s="43"/>
-      <c r="R29" s="69"/>
+      <c r="R29" s="70"/>
       <c r="S29" s="7" t="s">
         <v>27</v>
       </c>
@@ -3568,7 +3574,7 @@
       </c>
       <c r="V29"/>
       <c r="W29"/>
-      <c r="Z29" s="69"/>
+      <c r="Z29" s="70"/>
       <c r="AA29" s="2" t="s">
         <v>27</v>
       </c>
@@ -3580,7 +3586,7 @@
       </c>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B30" s="69"/>
+      <c r="B30" s="70"/>
       <c r="C30" s="7" t="s">
         <v>27</v>
       </c>
@@ -3599,7 +3605,7 @@
       <c r="L30" s="57"/>
       <c r="M30" s="45"/>
       <c r="N30" s="45"/>
-      <c r="R30" s="69"/>
+      <c r="R30" s="70"/>
       <c r="S30" s="7" t="s">
         <v>29</v>
       </c>
@@ -3611,7 +3617,7 @@
       </c>
       <c r="V30"/>
       <c r="W30"/>
-      <c r="Z30" s="69"/>
+      <c r="Z30" s="70"/>
       <c r="AA30" s="2" t="s">
         <v>29</v>
       </c>
@@ -3623,7 +3629,7 @@
       </c>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B31" s="69"/>
+      <c r="B31" s="70"/>
       <c r="C31" s="7" t="s">
         <v>29</v>
       </c>
@@ -3643,7 +3649,7 @@
       <c r="M31" s="45"/>
       <c r="N31" s="45"/>
       <c r="O31" s="43"/>
-      <c r="R31" s="69"/>
+      <c r="R31" s="70"/>
       <c r="S31" s="7" t="s">
         <v>30</v>
       </c>
@@ -3655,7 +3661,7 @@
       </c>
       <c r="V31"/>
       <c r="W31"/>
-      <c r="Z31" s="69"/>
+      <c r="Z31" s="70"/>
       <c r="AA31" s="2" t="s">
         <v>30</v>
       </c>
@@ -3667,7 +3673,7 @@
       </c>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B32" s="69"/>
+      <c r="B32" s="70"/>
       <c r="C32" s="7" t="s">
         <v>30</v>
       </c>
@@ -3687,7 +3693,7 @@
       <c r="M32" s="45"/>
       <c r="N32" s="45"/>
       <c r="O32" s="43"/>
-      <c r="R32" s="69"/>
+      <c r="R32" s="70"/>
       <c r="S32" s="7" t="s">
         <v>31</v>
       </c>
@@ -3699,7 +3705,7 @@
       </c>
       <c r="V32"/>
       <c r="W32"/>
-      <c r="Z32" s="69"/>
+      <c r="Z32" s="70"/>
       <c r="AA32" s="2" t="s">
         <v>31</v>
       </c>
@@ -3711,7 +3717,7 @@
       </c>
     </row>
     <row r="33" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B33" s="69"/>
+      <c r="B33" s="70"/>
       <c r="C33" s="7" t="s">
         <v>31</v>
       </c>
@@ -3731,7 +3737,7 @@
       <c r="M33" s="45"/>
       <c r="N33" s="45"/>
       <c r="O33" s="43"/>
-      <c r="R33" s="69"/>
+      <c r="R33" s="70"/>
       <c r="S33" s="7" t="s">
         <v>32</v>
       </c>
@@ -3743,7 +3749,7 @@
       </c>
       <c r="V33"/>
       <c r="W33"/>
-      <c r="Z33" s="69"/>
+      <c r="Z33" s="70"/>
       <c r="AA33" s="2" t="s">
         <v>32</v>
       </c>
@@ -3755,7 +3761,7 @@
       </c>
     </row>
     <row r="34" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B34" s="69"/>
+      <c r="B34" s="70"/>
       <c r="C34" s="7" t="s">
         <v>32</v>
       </c>
@@ -3781,7 +3787,7 @@
       <c r="W34"/>
     </row>
     <row r="35" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B35" s="69"/>
+      <c r="B35" s="70"/>
       <c r="C35" s="16" t="s">
         <v>144</v>
       </c>
@@ -4437,10 +4443,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:R34"/>
+  <dimension ref="A2:V34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20:T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4449,41 +4455,41 @@
     <col min="16" max="16" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C2" s="78" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C2" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="80"/>
-      <c r="G2" s="78" t="s">
+      <c r="F2" s="81"/>
+      <c r="G2" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78" t="s">
+      <c r="H2" s="79"/>
+      <c r="I2" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78" t="s">
+      <c r="J2" s="79"/>
+      <c r="K2" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="78"/>
-      <c r="M2" s="79" t="s">
+      <c r="L2" s="79"/>
+      <c r="M2" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="80"/>
-      <c r="O2" s="79" t="s">
+      <c r="N2" s="81"/>
+      <c r="O2" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="79" t="s">
+      <c r="P2" s="81"/>
+      <c r="Q2" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="R2" s="80"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R2" s="81"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
@@ -4536,8 +4542,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="82" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="41" t="s">
@@ -4592,8 +4598,8 @@
         <v>3.4230709999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="82"/>
       <c r="B5" s="41" t="s">
         <v>8</v>
       </c>
@@ -4645,9 +4651,18 @@
       <c r="R5">
         <v>0.57233160000000005</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
+      <c r="T5" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>2.4935700000000001</v>
+      </c>
+      <c r="V5">
+        <v>4.5557100000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="82"/>
       <c r="B6" s="41" t="s">
         <v>9</v>
       </c>
@@ -4699,9 +4714,18 @@
       <c r="R6">
         <v>6.1999699999999998E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
+      <c r="T6" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>2.4746100000000002</v>
+      </c>
+      <c r="V6">
+        <v>2.20648</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="82"/>
       <c r="B7" s="41" t="s">
         <v>10</v>
       </c>
@@ -4753,9 +4777,18 @@
       <c r="R7">
         <v>1.2609189999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
+      <c r="T7" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>2.57457</v>
+      </c>
+      <c r="V7">
+        <v>5.4641500000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="82"/>
       <c r="B8" s="41" t="s">
         <v>11</v>
       </c>
@@ -4807,9 +4840,18 @@
       <c r="R8">
         <v>0.13819119999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="81"/>
+      <c r="T8" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>1.0642199999999999</v>
+      </c>
+      <c r="V8">
+        <v>1.59501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="82"/>
       <c r="B9" s="41" t="s">
         <v>12</v>
       </c>
@@ -4861,9 +4903,18 @@
       <c r="R9">
         <v>6.1883920000000002E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
+      <c r="T9" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>1.24685</v>
+      </c>
+      <c r="V9">
+        <v>2.9723799999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="82"/>
       <c r="B10" s="41" t="s">
         <v>13</v>
       </c>
@@ -4915,9 +4966,18 @@
       <c r="R10">
         <v>0.42907440000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
+      <c r="T10" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>1.7143900000000001</v>
+      </c>
+      <c r="V10">
+        <v>1.24638</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="82"/>
       <c r="B11" s="41" t="s">
         <v>43</v>
       </c>
@@ -4969,9 +5029,18 @@
       <c r="R11">
         <v>0.2218099</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
+      <c r="T11" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <v>2.3034500000000002</v>
+      </c>
+      <c r="V11">
+        <v>3.2280199999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="82"/>
       <c r="B12" s="41" t="s">
         <v>14</v>
       </c>
@@ -5023,9 +5092,18 @@
       <c r="R12">
         <v>1.0603</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
+      <c r="T12" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <v>1.50919</v>
+      </c>
+      <c r="V12">
+        <v>2.3498999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="82"/>
       <c r="B13" s="41" t="s">
         <v>15</v>
       </c>
@@ -5077,9 +5155,18 @@
       <c r="R13">
         <v>6.2581940000000003E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
+      <c r="T13" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="U13">
+        <v>1.23803</v>
+      </c>
+      <c r="V13">
+        <v>4.9238999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="82"/>
       <c r="B14" s="41" t="s">
         <v>16</v>
       </c>
@@ -5101,9 +5188,18 @@
       <c r="R14">
         <v>3.1369670000000002E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
+      <c r="T14" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="U14">
+        <v>1.5589599999999999</v>
+      </c>
+      <c r="V14">
+        <v>2.6783999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="82"/>
       <c r="B15" s="41" t="s">
         <v>17</v>
       </c>
@@ -5155,9 +5251,12 @@
       <c r="R15">
         <v>0.3387541</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
+      <c r="T15" s="100" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="82"/>
       <c r="B16" s="41" t="s">
         <v>18</v>
       </c>
@@ -5209,9 +5308,18 @@
       <c r="R16">
         <v>7.1610380000000001E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
+      <c r="T16" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="U16">
+        <v>1.41483</v>
+      </c>
+      <c r="V16">
+        <v>3.3969499999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="82"/>
       <c r="B17" s="41" t="s">
         <v>19</v>
       </c>
@@ -5263,9 +5371,18 @@
       <c r="R17">
         <v>9.5070429999999997E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
+      <c r="T17" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>1.6982299999999999</v>
+      </c>
+      <c r="V17">
+        <v>3.8769300000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="82"/>
       <c r="B18" s="51" t="s">
         <v>20</v>
       </c>
@@ -5317,14 +5434,32 @@
       <c r="R18">
         <v>0.118992</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T18" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="U18">
+        <v>1.3303799999999999</v>
+      </c>
+      <c r="V18">
+        <v>4.6101799999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="81" t="s">
+      <c r="T19" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="U19">
+        <v>1.51796</v>
+      </c>
+      <c r="V19">
+        <v>1.8068200000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="82" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="52" t="s">
@@ -5378,9 +5513,18 @@
       <c r="R20">
         <v>0.9295949</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="81"/>
+      <c r="T20" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20">
+        <v>1.62765</v>
+      </c>
+      <c r="V20">
+        <v>6.6958900000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="82"/>
       <c r="B21" s="41" t="s">
         <v>21</v>
       </c>
@@ -5432,9 +5576,18 @@
       <c r="R21">
         <v>5.3098919999999996</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="81"/>
+      <c r="T21" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21">
+        <v>3.3776299999999999</v>
+      </c>
+      <c r="V21">
+        <v>3.6155599999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="82"/>
       <c r="B22" s="41" t="s">
         <v>22</v>
       </c>
@@ -5486,9 +5639,18 @@
       <c r="R22">
         <v>21.138449999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="81"/>
+      <c r="T22" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22">
+        <v>2.5739899999999998</v>
+      </c>
+      <c r="V22">
+        <v>6.2234100000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="82"/>
       <c r="B23" s="41" t="s">
         <v>42</v>
       </c>
@@ -5510,9 +5672,12 @@
       <c r="R23">
         <v>72.501519999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="81"/>
+      <c r="T23" s="100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="82"/>
       <c r="B24" s="41" t="s">
         <v>23</v>
       </c>
@@ -5564,9 +5729,18 @@
       <c r="R24">
         <v>0.91150299999999995</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="81"/>
+      <c r="T24" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="U24">
+        <v>1.3298399999999999</v>
+      </c>
+      <c r="V24">
+        <v>3.0274899999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="82"/>
       <c r="B25" s="41" t="s">
         <v>46</v>
       </c>
@@ -5612,9 +5786,18 @@
       <c r="R25">
         <v>46.007680000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="81"/>
+      <c r="T25" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="U25">
+        <v>2.3962300000000001</v>
+      </c>
+      <c r="V25">
+        <v>6.1444799999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="82"/>
       <c r="B26" s="41" t="s">
         <v>24</v>
       </c>
@@ -5666,9 +5849,18 @@
       <c r="R26">
         <v>1.7847919999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="81"/>
+      <c r="T26" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26">
+        <v>1.73736</v>
+      </c>
+      <c r="V26">
+        <v>3.4052099999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="82"/>
       <c r="B27" s="41" t="s">
         <v>25</v>
       </c>
@@ -5720,9 +5912,18 @@
       <c r="R27">
         <v>24.10435</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="81"/>
+      <c r="T27" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27">
+        <v>1.50474</v>
+      </c>
+      <c r="V27">
+        <v>2.3337500000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="82"/>
       <c r="B28" s="41" t="s">
         <v>26</v>
       </c>
@@ -5768,9 +5969,18 @@
       <c r="P28">
         <v>7.1720000000000006E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="81"/>
+      <c r="T28" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="U28">
+        <v>1.6746399999999999</v>
+      </c>
+      <c r="V28">
+        <v>4.4617199999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="82"/>
       <c r="B29" s="41" t="s">
         <v>27</v>
       </c>
@@ -5822,9 +6032,18 @@
       <c r="R29">
         <v>2.1002990000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="81"/>
+      <c r="T29" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="U29">
+        <v>1.7123200000000001</v>
+      </c>
+      <c r="V29">
+        <v>4.4630799999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="82"/>
       <c r="B30" s="41" t="s">
         <v>28</v>
       </c>
@@ -5876,9 +6095,18 @@
       <c r="R30">
         <v>1.7896300000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="81"/>
+      <c r="T30" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="U30">
+        <v>2.3571800000000001</v>
+      </c>
+      <c r="V30">
+        <v>3.5671499999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="82"/>
       <c r="B31" s="41" t="s">
         <v>29</v>
       </c>
@@ -5930,9 +6158,18 @@
       <c r="R31">
         <v>29.95242</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="81"/>
+      <c r="T31" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="U31">
+        <v>2.42198</v>
+      </c>
+      <c r="V31">
+        <v>5.7871800000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="82"/>
       <c r="B32" s="41" t="s">
         <v>30</v>
       </c>
@@ -5984,9 +6221,18 @@
       <c r="R32">
         <v>1.013811</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="81"/>
+      <c r="T32" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32">
+        <v>2.4435899999999999</v>
+      </c>
+      <c r="V32">
+        <v>8.6420999999999992</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="82"/>
       <c r="B33" s="41" t="s">
         <v>31</v>
       </c>
@@ -6038,9 +6284,18 @@
       <c r="R33">
         <v>2.5479759999999998</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="81"/>
+      <c r="T33" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33">
+        <v>1.1678900000000001</v>
+      </c>
+      <c r="V33">
+        <v>2.8374000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" s="82"/>
       <c r="B34" s="41" t="s">
         <v>32</v>
       </c>
@@ -6092,19 +6347,28 @@
       <c r="R34">
         <v>0.73363279999999997</v>
       </c>
+      <c r="T34" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="U34">
+        <v>1.45967</v>
+      </c>
+      <c r="V34">
+        <v>7.2844800000000003</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A4:A18"/>
     <mergeCell ref="A20:A34"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6115,12 +6379,14 @@
   <dimension ref="B1:AV34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="23" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="17.85546875" style="5" customWidth="1"/>
+    <col min="3" max="23" width="9.140625" style="5"/>
     <col min="24" max="24" width="12.140625" style="5" customWidth="1"/>
     <col min="25" max="28" width="9.140625" style="5"/>
     <col min="29" max="29" width="10" style="5" customWidth="1"/>
@@ -6135,75 +6401,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
     </row>
     <row r="2" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="H2" s="69" t="s">
+      <c r="F2" s="70"/>
+      <c r="H2" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="69"/>
-      <c r="K2" s="69" t="s">
+      <c r="I2" s="70"/>
+      <c r="K2" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="69"/>
-      <c r="N2" s="69" t="s">
+      <c r="L2" s="70"/>
+      <c r="N2" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="69"/>
-      <c r="Q2" s="69" t="s">
+      <c r="O2" s="70"/>
+      <c r="Q2" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="R2" s="69"/>
-      <c r="T2" s="69" t="s">
+      <c r="R2" s="70"/>
+      <c r="T2" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="69"/>
-      <c r="W2" s="69" t="s">
+      <c r="U2" s="70"/>
+      <c r="W2" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="X2" s="69"/>
-      <c r="Z2" s="69" t="s">
+      <c r="X2" s="70"/>
+      <c r="Z2" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="AA2" s="69"/>
-      <c r="AC2" s="69" t="s">
+      <c r="AA2" s="70"/>
+      <c r="AC2" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="AD2" s="69"/>
-      <c r="AF2" s="69" t="s">
+      <c r="AD2" s="70"/>
+      <c r="AF2" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="AG2" s="69"/>
-      <c r="AI2" s="69" t="s">
+      <c r="AG2" s="70"/>
+      <c r="AI2" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="AJ2" s="69"/>
-      <c r="AL2" s="69" t="s">
+      <c r="AJ2" s="70"/>
+      <c r="AL2" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="AM2" s="69"/>
-      <c r="AO2" s="69" t="s">
+      <c r="AM2" s="70"/>
+      <c r="AO2" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="AP2" s="69"/>
-      <c r="AR2" s="69" t="s">
+      <c r="AP2" s="70"/>
+      <c r="AR2" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="AS2" s="69"/>
-      <c r="AU2" s="69" t="s">
+      <c r="AS2" s="70"/>
+      <c r="AU2" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="AV2" s="69"/>
+      <c r="AV2" s="70"/>
     </row>
     <row r="3" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="C3" s="9" t="s">
         <v>34</v>
       </c>
@@ -6299,7 +6568,7 @@
       </c>
     </row>
     <row r="4" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="61" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -6397,7 +6666,9 @@
       </c>
     </row>
     <row r="5" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B5" s="69"/>
+      <c r="B5" s="61" t="s">
+        <v>2</v>
+      </c>
       <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
@@ -6493,7 +6764,9 @@
       </c>
     </row>
     <row r="6" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B6" s="69"/>
+      <c r="B6" s="61" t="s">
+        <v>2</v>
+      </c>
       <c r="C6" s="9" t="s">
         <v>9</v>
       </c>
@@ -6589,7 +6862,9 @@
       </c>
     </row>
     <row r="7" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B7" s="69"/>
+      <c r="B7" s="61" t="s">
+        <v>2</v>
+      </c>
       <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
@@ -6685,7 +6960,9 @@
       </c>
     </row>
     <row r="8" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B8" s="69"/>
+      <c r="B8" s="61" t="s">
+        <v>2</v>
+      </c>
       <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
@@ -6781,7 +7058,9 @@
       </c>
     </row>
     <row r="9" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B9" s="69"/>
+      <c r="B9" s="61" t="s">
+        <v>2</v>
+      </c>
       <c r="C9" s="9" t="s">
         <v>12</v>
       </c>
@@ -6853,7 +7132,9 @@
       </c>
     </row>
     <row r="10" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B10" s="69"/>
+      <c r="B10" s="61" t="s">
+        <v>2</v>
+      </c>
       <c r="C10" s="9" t="s">
         <v>13</v>
       </c>
@@ -6949,7 +7230,9 @@
       </c>
     </row>
     <row r="11" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B11" s="69"/>
+      <c r="B11" s="61" t="s">
+        <v>2</v>
+      </c>
       <c r="C11" s="9" t="s">
         <v>43</v>
       </c>
@@ -7045,7 +7328,9 @@
       </c>
     </row>
     <row r="12" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B12" s="69"/>
+      <c r="B12" s="61" t="s">
+        <v>2</v>
+      </c>
       <c r="C12" s="9" t="s">
         <v>14</v>
       </c>
@@ -7141,7 +7426,9 @@
       </c>
     </row>
     <row r="13" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B13" s="69"/>
+      <c r="B13" s="61" t="s">
+        <v>2</v>
+      </c>
       <c r="C13" s="9" t="s">
         <v>15</v>
       </c>
@@ -7237,7 +7524,9 @@
       </c>
     </row>
     <row r="14" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B14" s="69"/>
+      <c r="B14" s="61" t="s">
+        <v>2</v>
+      </c>
       <c r="C14" s="9" t="s">
         <v>16</v>
       </c>
@@ -7333,7 +7622,9 @@
       </c>
     </row>
     <row r="15" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B15" s="69"/>
+      <c r="B15" s="61" t="s">
+        <v>2</v>
+      </c>
       <c r="C15" s="9" t="s">
         <v>17</v>
       </c>
@@ -7425,7 +7716,9 @@
       </c>
     </row>
     <row r="16" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B16" s="69"/>
+      <c r="B16" s="61" t="s">
+        <v>2</v>
+      </c>
       <c r="C16" s="9" t="s">
         <v>18</v>
       </c>
@@ -7521,7 +7814,9 @@
       </c>
     </row>
     <row r="17" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B17" s="69"/>
+      <c r="B17" s="61" t="s">
+        <v>2</v>
+      </c>
       <c r="C17" s="9" t="s">
         <v>19</v>
       </c>
@@ -7613,7 +7908,9 @@
       </c>
     </row>
     <row r="18" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B18" s="69"/>
+      <c r="B18" s="61" t="s">
+        <v>2</v>
+      </c>
       <c r="C18" s="9" t="s">
         <v>20</v>
       </c>
@@ -7709,9 +8006,18 @@
       </c>
     </row>
     <row r="19" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="C19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="B19" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="14">
+        <v>736.54250000000002</v>
+      </c>
+      <c r="F19" s="14">
+        <v>700.70249999999999</v>
+      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="K19" s="14"/>
@@ -7742,17 +8048,17 @@
       <c r="AV19" s="14"/>
     </row>
     <row r="20" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="61" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E20" s="14">
-        <v>736.54250000000002</v>
+        <v>1736.6880000000001</v>
       </c>
       <c r="F20" s="14">
-        <v>700.70249999999999</v>
+        <v>870.71249999999998</v>
       </c>
       <c r="H20" s="14">
         <v>307.70999999999998</v>
@@ -7840,15 +8146,17 @@
       </c>
     </row>
     <row r="21" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B21" s="69"/>
+      <c r="B21" s="61" t="s">
+        <v>3</v>
+      </c>
       <c r="C21" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E21" s="14">
-        <v>1736.6880000000001</v>
+        <v>952.67499999999995</v>
       </c>
       <c r="F21" s="14">
-        <v>870.71249999999998</v>
+        <v>904.15250000000003</v>
       </c>
       <c r="H21" s="14">
         <v>484.82499999999999</v>
@@ -7936,15 +8244,17 @@
       </c>
     </row>
     <row r="22" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B22" s="69"/>
+      <c r="B22" s="61" t="s">
+        <v>3</v>
+      </c>
       <c r="C22" s="9" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E22" s="14">
-        <v>952.67499999999995</v>
+        <v>4934.5749999999998</v>
       </c>
       <c r="F22" s="14">
-        <v>904.15250000000003</v>
+        <v>4909.6000000000004</v>
       </c>
       <c r="H22" s="14">
         <v>141.72049999999999</v>
@@ -8032,15 +8342,17 @@
       </c>
     </row>
     <row r="23" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B23" s="69"/>
+      <c r="B23" s="61" t="s">
+        <v>3</v>
+      </c>
       <c r="C23" s="9" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E23" s="14">
-        <v>4934.5749999999998</v>
+        <v>1172.538</v>
       </c>
       <c r="F23" s="14">
-        <v>4909.6000000000004</v>
+        <v>1262.875</v>
       </c>
       <c r="H23" s="14">
         <v>415.83249999999998</v>
@@ -8128,15 +8440,17 @@
       </c>
     </row>
     <row r="24" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B24" s="69"/>
+      <c r="B24" s="61" t="s">
+        <v>3</v>
+      </c>
       <c r="C24" s="9" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E24" s="14">
-        <v>1172.538</v>
+        <v>928.23</v>
       </c>
       <c r="F24" s="14">
-        <v>1262.875</v>
+        <v>899.83</v>
       </c>
       <c r="H24" s="14">
         <v>381.38499999999999</v>
@@ -8224,15 +8538,17 @@
       </c>
     </row>
     <row r="25" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B25" s="69"/>
+      <c r="B25" s="61" t="s">
+        <v>3</v>
+      </c>
       <c r="C25" s="9" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E25" s="14">
-        <v>928.23</v>
+        <v>457.11</v>
       </c>
       <c r="F25" s="14">
-        <v>899.83</v>
+        <v>350.05380000000002</v>
       </c>
       <c r="H25" s="14">
         <v>382.92</v>
@@ -8296,15 +8612,17 @@
       </c>
     </row>
     <row r="26" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B26" s="69"/>
+      <c r="B26" s="61" t="s">
+        <v>3</v>
+      </c>
       <c r="C26" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E26" s="14">
-        <v>457.11</v>
+        <v>777.64250000000004</v>
       </c>
       <c r="F26" s="14">
-        <v>350.05380000000002</v>
+        <v>760.08</v>
       </c>
       <c r="H26" s="14">
         <v>544.08249999999998</v>
@@ -8392,15 +8710,17 @@
       </c>
     </row>
     <row r="27" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B27" s="69"/>
+      <c r="B27" s="61" t="s">
+        <v>3</v>
+      </c>
       <c r="C27" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E27" s="14">
-        <v>777.64250000000004</v>
+        <v>802.55250000000001</v>
       </c>
       <c r="F27" s="14">
-        <v>760.08</v>
+        <v>701.48</v>
       </c>
       <c r="H27" s="14">
         <v>44.987499999999997</v>
@@ -8488,15 +8808,17 @@
       </c>
     </row>
     <row r="28" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B28" s="69"/>
+      <c r="B28" s="61" t="s">
+        <v>3</v>
+      </c>
       <c r="C28" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E28" s="14">
-        <v>802.55250000000001</v>
+        <v>640.55999999999995</v>
       </c>
       <c r="F28" s="14">
-        <v>701.48</v>
+        <v>593.49</v>
       </c>
       <c r="H28" s="14">
         <v>292.40899999999999</v>
@@ -8584,15 +8906,17 @@
       </c>
     </row>
     <row r="29" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B29" s="69"/>
+      <c r="B29" s="61" t="s">
+        <v>3</v>
+      </c>
       <c r="C29" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E29" s="14">
-        <v>640.55999999999995</v>
+        <v>1433.7249999999999</v>
       </c>
       <c r="F29" s="14">
-        <v>593.49</v>
+        <v>1148.8130000000001</v>
       </c>
       <c r="H29" s="14">
         <v>305.04750000000001</v>
@@ -8680,15 +9004,17 @@
       </c>
     </row>
     <row r="30" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B30" s="69"/>
+      <c r="B30" s="61" t="s">
+        <v>3</v>
+      </c>
       <c r="C30" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E30" s="14">
-        <v>1433.7249999999999</v>
+        <v>1832.15</v>
       </c>
       <c r="F30" s="14">
-        <v>1148.8130000000001</v>
+        <v>1377.125</v>
       </c>
       <c r="H30" s="14">
         <v>306.38499999999999</v>
@@ -8776,15 +9102,17 @@
       </c>
     </row>
     <row r="31" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B31" s="69"/>
+      <c r="B31" s="61" t="s">
+        <v>3</v>
+      </c>
       <c r="C31" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E31" s="14">
-        <v>1832.15</v>
+        <v>6067.6</v>
       </c>
       <c r="F31" s="14">
-        <v>1377.125</v>
+        <v>5877.5249999999996</v>
       </c>
       <c r="H31" s="14">
         <v>452.21499999999997</v>
@@ -8872,15 +9200,17 @@
       </c>
     </row>
     <row r="32" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B32" s="69"/>
+      <c r="B32" s="61" t="s">
+        <v>3</v>
+      </c>
       <c r="C32" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E32" s="14">
-        <v>6067.6</v>
+        <v>752.20500000000004</v>
       </c>
       <c r="F32" s="14">
-        <v>5877.5249999999996</v>
+        <v>718.65</v>
       </c>
       <c r="H32" s="14">
         <v>551.8175</v>
@@ -8968,15 +9298,17 @@
       </c>
     </row>
     <row r="33" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B33" s="69"/>
+      <c r="B33" s="61" t="s">
+        <v>3</v>
+      </c>
       <c r="C33" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E33" s="14">
-        <v>752.20500000000004</v>
+        <v>779.53</v>
       </c>
       <c r="F33" s="14">
-        <v>718.65</v>
+        <v>768.73249999999996</v>
       </c>
       <c r="H33" s="14">
         <v>235.52500000000001</v>
@@ -9060,16 +9392,6 @@
       </c>
     </row>
     <row r="34" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B34" s="69"/>
-      <c r="C34" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="14">
-        <v>779.53</v>
-      </c>
-      <c r="F34" s="14">
-        <v>768.73249999999996</v>
-      </c>
       <c r="H34" s="14">
         <v>221.9975</v>
       </c>
@@ -9156,17 +9478,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B4:B18"/>
-    <mergeCell ref="B20:B34"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AO2:AP2"/>
+  <mergeCells count="16">
     <mergeCell ref="AR2:AS2"/>
     <mergeCell ref="AU2:AV2"/>
     <mergeCell ref="T2:U2"/>
@@ -9175,6 +9487,14 @@
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9194,131 +9514,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:87" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="F2" s="69" t="s">
+      <c r="D2" s="70"/>
+      <c r="F2" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="69"/>
+      <c r="G2" s="70"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="69"/>
-      <c r="L2" s="69" t="s">
+      <c r="J2" s="70"/>
+      <c r="L2" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="M2" s="69"/>
-      <c r="O2" s="69" t="s">
+      <c r="M2" s="70"/>
+      <c r="O2" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="P2" s="69"/>
-      <c r="R2" s="69" t="s">
+      <c r="P2" s="70"/>
+      <c r="R2" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="S2" s="69"/>
-      <c r="U2" s="69" t="s">
+      <c r="S2" s="70"/>
+      <c r="U2" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="V2" s="69"/>
-      <c r="X2" s="69" t="s">
+      <c r="V2" s="70"/>
+      <c r="X2" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="Y2" s="69"/>
-      <c r="AA2" s="69" t="s">
+      <c r="Y2" s="70"/>
+      <c r="AA2" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="AB2" s="69"/>
-      <c r="AD2" s="69" t="s">
+      <c r="AB2" s="70"/>
+      <c r="AD2" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="AE2" s="69"/>
-      <c r="AG2" s="69" t="s">
+      <c r="AE2" s="70"/>
+      <c r="AG2" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="AH2" s="69"/>
-      <c r="AJ2" s="69" t="s">
+      <c r="AH2" s="70"/>
+      <c r="AJ2" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="AK2" s="69"/>
-      <c r="AM2" s="69" t="s">
+      <c r="AK2" s="70"/>
+      <c r="AM2" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="AN2" s="69"/>
-      <c r="AP2" s="69" t="s">
+      <c r="AN2" s="70"/>
+      <c r="AP2" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="AQ2" s="69"/>
-      <c r="AS2" s="66" t="s">
+      <c r="AQ2" s="70"/>
+      <c r="AS2" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="AT2" s="66"/>
-      <c r="AV2" s="66" t="s">
+      <c r="AT2" s="67"/>
+      <c r="AV2" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="AW2" s="66"/>
-      <c r="AY2" s="66" t="s">
+      <c r="AW2" s="67"/>
+      <c r="AY2" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="AZ2" s="66"/>
-      <c r="BB2" s="66" t="s">
+      <c r="AZ2" s="67"/>
+      <c r="BB2" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="BC2" s="66"/>
-      <c r="BE2" s="66" t="s">
+      <c r="BC2" s="67"/>
+      <c r="BE2" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="BF2" s="66"/>
-      <c r="BH2" s="66" t="s">
+      <c r="BF2" s="67"/>
+      <c r="BH2" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="BI2" s="66"/>
-      <c r="BK2" s="66" t="s">
+      <c r="BI2" s="67"/>
+      <c r="BK2" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="BL2" s="66"/>
-      <c r="BN2" s="69" t="s">
+      <c r="BL2" s="67"/>
+      <c r="BN2" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="BO2" s="69"/>
-      <c r="BQ2" s="69" t="s">
+      <c r="BO2" s="70"/>
+      <c r="BQ2" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="BR2" s="69"/>
-      <c r="BT2" s="69" t="s">
+      <c r="BR2" s="70"/>
+      <c r="BT2" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="BU2" s="69"/>
-      <c r="BW2" s="69" t="s">
+      <c r="BU2" s="70"/>
+      <c r="BW2" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="BX2" s="69"/>
-      <c r="BZ2" s="69" t="s">
+      <c r="BX2" s="70"/>
+      <c r="BZ2" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="CA2" s="69"/>
-      <c r="CC2" s="69" t="s">
+      <c r="CA2" s="70"/>
+      <c r="CC2" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="CD2" s="69"/>
-      <c r="CF2" s="69" t="s">
+      <c r="CD2" s="70"/>
+      <c r="CF2" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="CG2" s="69"/>
+      <c r="CG2" s="70"/>
     </row>
     <row r="3" spans="1:87" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
@@ -15332,21 +15652,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A4:A18"/>
-    <mergeCell ref="A20:A34"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="CF2:CG2"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="BN2:BO2"/>
@@ -15363,6 +15668,21 @@
     <mergeCell ref="BK2:BL2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="A20:A34"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15383,114 +15703,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="87" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
     </row>
     <row r="2" spans="1:75" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="F2" s="87" t="s">
+      <c r="D2" s="88"/>
+      <c r="F2" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="87"/>
-      <c r="I2" s="87" t="s">
+      <c r="G2" s="88"/>
+      <c r="I2" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="87"/>
-      <c r="L2" s="87" t="s">
+      <c r="J2" s="88"/>
+      <c r="L2" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="87"/>
-      <c r="O2" s="87" t="s">
+      <c r="M2" s="88"/>
+      <c r="O2" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="P2" s="87"/>
-      <c r="R2" s="87" t="s">
+      <c r="P2" s="88"/>
+      <c r="R2" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="S2" s="87"/>
-      <c r="U2" s="87" t="s">
+      <c r="S2" s="88"/>
+      <c r="U2" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="87"/>
-      <c r="X2" s="87" t="s">
+      <c r="V2" s="88"/>
+      <c r="X2" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="Y2" s="87"/>
-      <c r="AA2" s="87" t="s">
+      <c r="Y2" s="88"/>
+      <c r="AA2" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="AB2" s="87"/>
-      <c r="AD2" s="87" t="s">
+      <c r="AB2" s="88"/>
+      <c r="AD2" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="AE2" s="87"/>
-      <c r="AG2" s="87" t="s">
+      <c r="AE2" s="88"/>
+      <c r="AG2" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="AH2" s="87"/>
-      <c r="AJ2" s="87" t="s">
+      <c r="AH2" s="88"/>
+      <c r="AJ2" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="AK2" s="87"/>
-      <c r="AM2" s="88" t="s">
+      <c r="AK2" s="88"/>
+      <c r="AM2" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="AN2" s="88"/>
-      <c r="AP2" s="88" t="s">
+      <c r="AN2" s="90"/>
+      <c r="AP2" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="AQ2" s="88"/>
-      <c r="AS2" s="88" t="s">
+      <c r="AQ2" s="90"/>
+      <c r="AS2" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="AT2" s="88"/>
-      <c r="AV2" s="88" t="s">
+      <c r="AT2" s="90"/>
+      <c r="AV2" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="AW2" s="88"/>
-      <c r="AY2" s="88" t="s">
+      <c r="AW2" s="90"/>
+      <c r="AY2" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="AZ2" s="88"/>
-      <c r="BB2" s="87" t="s">
+      <c r="AZ2" s="90"/>
+      <c r="BB2" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="BC2" s="87"/>
-      <c r="BE2" s="87" t="s">
+      <c r="BC2" s="88"/>
+      <c r="BE2" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="BF2" s="87"/>
-      <c r="BH2" s="87" t="s">
+      <c r="BF2" s="88"/>
+      <c r="BH2" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="BI2" s="87"/>
-      <c r="BK2" s="87" t="s">
+      <c r="BI2" s="88"/>
+      <c r="BK2" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="BL2" s="87"/>
-      <c r="BN2" s="87" t="s">
+      <c r="BL2" s="88"/>
+      <c r="BN2" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="BO2" s="87"/>
-      <c r="BQ2" s="87" t="s">
+      <c r="BO2" s="88"/>
+      <c r="BQ2" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="BR2" s="87"/>
-      <c r="BT2" s="87" t="s">
+      <c r="BR2" s="88"/>
+      <c r="BT2" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="BU2" s="87"/>
+      <c r="BU2" s="88"/>
     </row>
     <row r="3" spans="1:75" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
@@ -15642,7 +15962,7 @@
       </c>
     </row>
     <row r="4" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="89" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -15797,7 +16117,7 @@
       <c r="BW4" s="25"/>
     </row>
     <row r="5" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -15950,7 +16270,7 @@
       <c r="BW5" s="25"/>
     </row>
     <row r="6" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A6" s="86"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -16103,7 +16423,7 @@
       <c r="BW6" s="25"/>
     </row>
     <row r="7" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A7" s="86"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
@@ -16256,7 +16576,7 @@
       <c r="BW7" s="25"/>
     </row>
     <row r="8" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A8" s="86"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
@@ -16409,7 +16729,7 @@
       <c r="BW8" s="25"/>
     </row>
     <row r="9" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A9" s="86"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
@@ -16562,7 +16882,7 @@
       <c r="BW9" s="25"/>
     </row>
     <row r="10" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A10" s="86"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
@@ -16715,7 +17035,7 @@
       <c r="BW10" s="25"/>
     </row>
     <row r="11" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
+      <c r="A11" s="89"/>
       <c r="B11" s="7" t="s">
         <v>43</v>
       </c>
@@ -16868,7 +17188,7 @@
       <c r="BW11" s="25"/>
     </row>
     <row r="12" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A12" s="86"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -17021,7 +17341,7 @@
       <c r="BW12" s="25"/>
     </row>
     <row r="13" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
+      <c r="A13" s="89"/>
       <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
@@ -17174,7 +17494,7 @@
       <c r="BW13" s="25"/>
     </row>
     <row r="14" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A14" s="86"/>
+      <c r="A14" s="89"/>
       <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
@@ -17327,7 +17647,7 @@
       <c r="BW14" s="25"/>
     </row>
     <row r="15" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="7" t="s">
         <v>17</v>
       </c>
@@ -17480,7 +17800,7 @@
       <c r="BW15" s="25"/>
     </row>
     <row r="16" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
+      <c r="A16" s="89"/>
       <c r="B16" s="7" t="s">
         <v>18</v>
       </c>
@@ -17633,7 +17953,7 @@
       <c r="BW16" s="25"/>
     </row>
     <row r="17" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
+      <c r="A17" s="89"/>
       <c r="B17" s="7" t="s">
         <v>19</v>
       </c>
@@ -17786,7 +18106,7 @@
       <c r="BW17" s="25"/>
     </row>
     <row r="18" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
+      <c r="A18" s="89"/>
       <c r="B18" s="7" t="s">
         <v>20</v>
       </c>
@@ -17993,7 +18313,7 @@
       <c r="BW19" s="25"/>
     </row>
     <row r="20" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="89" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -18145,7 +18465,7 @@
       </c>
     </row>
     <row r="21" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A21" s="86"/>
+      <c r="A21" s="89"/>
       <c r="B21" s="7" t="s">
         <v>21</v>
       </c>
@@ -18295,7 +18615,7 @@
       </c>
     </row>
     <row r="22" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A22" s="86"/>
+      <c r="A22" s="89"/>
       <c r="B22" s="7" t="s">
         <v>22</v>
       </c>
@@ -18445,7 +18765,7 @@
       </c>
     </row>
     <row r="23" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
+      <c r="A23" s="89"/>
       <c r="B23" s="7" t="s">
         <v>42</v>
       </c>
@@ -18595,7 +18915,7 @@
       </c>
     </row>
     <row r="24" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
+      <c r="A24" s="89"/>
       <c r="B24" s="7" t="s">
         <v>23</v>
       </c>
@@ -18745,7 +19065,7 @@
       </c>
     </row>
     <row r="25" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A25" s="86"/>
+      <c r="A25" s="89"/>
       <c r="B25" s="7" t="s">
         <v>46</v>
       </c>
@@ -18891,7 +19211,7 @@
       </c>
     </row>
     <row r="26" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A26" s="86"/>
+      <c r="A26" s="89"/>
       <c r="B26" s="7" t="s">
         <v>24</v>
       </c>
@@ -19041,7 +19361,7 @@
       </c>
     </row>
     <row r="27" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A27" s="86"/>
+      <c r="A27" s="89"/>
       <c r="B27" s="7" t="s">
         <v>25</v>
       </c>
@@ -19191,7 +19511,7 @@
       </c>
     </row>
     <row r="28" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A28" s="86"/>
+      <c r="A28" s="89"/>
       <c r="B28" s="7" t="s">
         <v>26</v>
       </c>
@@ -19341,7 +19661,7 @@
       </c>
     </row>
     <row r="29" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A29" s="86"/>
+      <c r="A29" s="89"/>
       <c r="B29" s="7" t="s">
         <v>27</v>
       </c>
@@ -19491,7 +19811,7 @@
       </c>
     </row>
     <row r="30" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A30" s="86"/>
+      <c r="A30" s="89"/>
       <c r="B30" s="7" t="s">
         <v>28</v>
       </c>
@@ -19641,7 +19961,7 @@
       </c>
     </row>
     <row r="31" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A31" s="86"/>
+      <c r="A31" s="89"/>
       <c r="B31" s="7" t="s">
         <v>29</v>
       </c>
@@ -19791,7 +20111,7 @@
       </c>
     </row>
     <row r="32" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A32" s="86"/>
+      <c r="A32" s="89"/>
       <c r="B32" s="7" t="s">
         <v>30</v>
       </c>
@@ -19941,7 +20261,7 @@
       </c>
     </row>
     <row r="33" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A33" s="86"/>
+      <c r="A33" s="89"/>
       <c r="B33" s="7" t="s">
         <v>31</v>
       </c>
@@ -20091,7 +20411,7 @@
       </c>
     </row>
     <row r="34" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A34" s="86"/>
+      <c r="A34" s="89"/>
       <c r="B34" s="7" t="s">
         <v>32</v>
       </c>
@@ -20323,11 +20643,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A20:A34"/>
+    <mergeCell ref="BH2:BI2"/>
+    <mergeCell ref="BK2:BL2"/>
+    <mergeCell ref="BN2:BO2"/>
+    <mergeCell ref="BQ2:BR2"/>
+    <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="BT2:BU2"/>
     <mergeCell ref="A4:A18"/>
     <mergeCell ref="AP2:AQ2"/>
@@ -20344,12 +20665,11 @@
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A20:A34"/>
-    <mergeCell ref="BH2:BI2"/>
-    <mergeCell ref="BK2:BL2"/>
-    <mergeCell ref="BN2:BO2"/>
-    <mergeCell ref="BQ2:BR2"/>
-    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20370,89 +20690,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="96" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="F2" s="96" t="s">
+      <c r="D2" s="69"/>
+      <c r="F2" s="95" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="96"/>
-      <c r="I2" s="97" t="s">
+      <c r="G2" s="95"/>
+      <c r="I2" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="98"/>
-      <c r="L2" s="93" t="s">
+      <c r="J2" s="99"/>
+      <c r="L2" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="M2" s="94"/>
-      <c r="O2" s="93" t="s">
+      <c r="M2" s="92"/>
+      <c r="O2" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="P2" s="94"/>
-      <c r="R2" s="93" t="s">
+      <c r="P2" s="92"/>
+      <c r="R2" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="S2" s="94"/>
-      <c r="U2" s="93" t="s">
+      <c r="S2" s="92"/>
+      <c r="U2" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="V2" s="94"/>
-      <c r="X2" s="93" t="s">
+      <c r="V2" s="92"/>
+      <c r="X2" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="Y2" s="94"/>
-      <c r="AA2" s="93" t="s">
+      <c r="Y2" s="92"/>
+      <c r="AA2" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="AB2" s="94"/>
-      <c r="AD2" s="95" t="s">
+      <c r="AB2" s="92"/>
+      <c r="AD2" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="AE2" s="95"/>
-      <c r="AG2" s="93" t="s">
+      <c r="AE2" s="94"/>
+      <c r="AG2" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="AH2" s="94"/>
-      <c r="AJ2" s="93" t="s">
+      <c r="AH2" s="92"/>
+      <c r="AJ2" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="AK2" s="94"/>
-      <c r="AM2" s="93" t="s">
+      <c r="AK2" s="92"/>
+      <c r="AM2" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="AN2" s="94"/>
-      <c r="AP2" s="93" t="s">
+      <c r="AN2" s="92"/>
+      <c r="AP2" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="AQ2" s="94"/>
-      <c r="AS2" s="93" t="s">
+      <c r="AQ2" s="92"/>
+      <c r="AS2" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="AT2" s="94"/>
-      <c r="AV2" s="93" t="s">
+      <c r="AT2" s="92"/>
+      <c r="AV2" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="AW2" s="94"/>
-      <c r="AY2" s="93" t="s">
+      <c r="AW2" s="92"/>
+      <c r="AY2" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="AZ2" s="94"/>
+      <c r="AZ2" s="92"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -20563,7 +20883,7 @@
       </c>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="93" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="29" t="s">
@@ -20673,7 +20993,7 @@
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="29" t="s">
         <v>8</v>
       </c>
@@ -20781,7 +21101,7 @@
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A6" s="91"/>
+      <c r="A6" s="93"/>
       <c r="B6" s="29" t="s">
         <v>9</v>
       </c>
@@ -20889,7 +21209,7 @@
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
+      <c r="A7" s="93"/>
       <c r="B7" s="29" t="s">
         <v>10</v>
       </c>
@@ -20997,7 +21317,7 @@
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A8" s="91"/>
+      <c r="A8" s="93"/>
       <c r="B8" s="29" t="s">
         <v>11</v>
       </c>
@@ -21105,7 +21425,7 @@
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="93"/>
       <c r="B9" s="29" t="s">
         <v>12</v>
       </c>
@@ -21213,7 +21533,7 @@
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A10" s="91"/>
+      <c r="A10" s="93"/>
       <c r="B10" s="29" t="s">
         <v>13</v>
       </c>
@@ -21321,7 +21641,7 @@
       </c>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A11" s="91"/>
+      <c r="A11" s="93"/>
       <c r="B11" s="29" t="s">
         <v>43</v>
       </c>
@@ -21429,7 +21749,7 @@
       </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A12" s="91"/>
+      <c r="A12" s="93"/>
       <c r="B12" s="29" t="s">
         <v>14</v>
       </c>
@@ -21537,7 +21857,7 @@
       </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A13" s="91"/>
+      <c r="A13" s="93"/>
       <c r="B13" s="29" t="s">
         <v>15</v>
       </c>
@@ -21645,7 +21965,7 @@
       </c>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A14" s="91"/>
+      <c r="A14" s="93"/>
       <c r="B14" s="29" t="s">
         <v>16</v>
       </c>
@@ -21753,7 +22073,7 @@
       </c>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A15" s="91"/>
+      <c r="A15" s="93"/>
       <c r="B15" s="29" t="s">
         <v>17</v>
       </c>
@@ -21861,7 +22181,7 @@
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A16" s="91"/>
+      <c r="A16" s="93"/>
       <c r="B16" s="29" t="s">
         <v>18</v>
       </c>
@@ -21969,7 +22289,7 @@
       </c>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A17" s="91"/>
+      <c r="A17" s="93"/>
       <c r="B17" s="29" t="s">
         <v>19</v>
       </c>
@@ -22077,7 +22397,7 @@
       </c>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A18" s="91"/>
+      <c r="A18" s="93"/>
       <c r="B18" s="29" t="s">
         <v>20</v>
       </c>
@@ -22223,7 +22543,7 @@
       <c r="AZ19" s="31"/>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="93" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="29" t="s">
@@ -22333,7 +22653,7 @@
       </c>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A21" s="91"/>
+      <c r="A21" s="93"/>
       <c r="B21" s="29" t="s">
         <v>21</v>
       </c>
@@ -22441,7 +22761,7 @@
       </c>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A22" s="91"/>
+      <c r="A22" s="93"/>
       <c r="B22" s="29" t="s">
         <v>22</v>
       </c>
@@ -22549,7 +22869,7 @@
       </c>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A23" s="91"/>
+      <c r="A23" s="93"/>
       <c r="B23" s="29" t="s">
         <v>42</v>
       </c>
@@ -22657,7 +22977,7 @@
       </c>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A24" s="91"/>
+      <c r="A24" s="93"/>
       <c r="B24" s="29" t="s">
         <v>23</v>
       </c>
@@ -22697,7 +23017,7 @@
       <c r="AZ24" s="31"/>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A25" s="91"/>
+      <c r="A25" s="93"/>
       <c r="B25" s="29" t="s">
         <v>46</v>
       </c>
@@ -22805,7 +23125,7 @@
       </c>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A26" s="91"/>
+      <c r="A26" s="93"/>
       <c r="B26" s="29" t="s">
         <v>24</v>
       </c>
@@ -22913,7 +23233,7 @@
       </c>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A27" s="91"/>
+      <c r="A27" s="93"/>
       <c r="B27" s="29" t="s">
         <v>25</v>
       </c>
@@ -22953,7 +23273,7 @@
       <c r="AZ27" s="31"/>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A28" s="91"/>
+      <c r="A28" s="93"/>
       <c r="B28" s="29" t="s">
         <v>26</v>
       </c>
@@ -23061,7 +23381,7 @@
       </c>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A29" s="91"/>
+      <c r="A29" s="93"/>
       <c r="B29" s="29" t="s">
         <v>27</v>
       </c>
@@ -23169,7 +23489,7 @@
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A30" s="91"/>
+      <c r="A30" s="93"/>
       <c r="B30" s="29" t="s">
         <v>28</v>
       </c>
@@ -23277,7 +23597,7 @@
       </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A31" s="91"/>
+      <c r="A31" s="93"/>
       <c r="B31" s="29" t="s">
         <v>29</v>
       </c>
@@ -23385,7 +23705,7 @@
       </c>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A32" s="91"/>
+      <c r="A32" s="93"/>
       <c r="B32" s="29" t="s">
         <v>30</v>
       </c>
@@ -23493,7 +23813,7 @@
       </c>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A33" s="91"/>
+      <c r="A33" s="93"/>
       <c r="B33" s="29" t="s">
         <v>31</v>
       </c>
@@ -23601,7 +23921,7 @@
       </c>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A34" s="91"/>
+      <c r="A34" s="93"/>
       <c r="B34" s="29" t="s">
         <v>32</v>
       </c>
@@ -23709,38 +24029,38 @@
       </c>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A38" s="90" t="s">
+      <c r="A38" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="B38" s="90"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="90"/>
-      <c r="K38" s="90"/>
-      <c r="L38" s="90"/>
-      <c r="M38" s="90"/>
-      <c r="N38" s="90"/>
-      <c r="O38" s="90"/>
-      <c r="P38" s="90"/>
-      <c r="Q38" s="90"/>
-      <c r="R38" s="90"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="96"/>
+      <c r="J38" s="96"/>
+      <c r="K38" s="96"/>
+      <c r="L38" s="96"/>
+      <c r="M38" s="96"/>
+      <c r="N38" s="96"/>
+      <c r="O38" s="96"/>
+      <c r="P38" s="96"/>
+      <c r="Q38" s="96"/>
+      <c r="R38" s="96"/>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="92" t="s">
+      <c r="C39" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92" t="s">
+      <c r="D39" s="97"/>
+      <c r="E39" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="92"/>
+      <c r="F39" s="97"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -23769,7 +24089,7 @@
       </c>
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A41" s="91" t="s">
+      <c r="A41" s="93" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="38" t="s">
@@ -23789,7 +24109,7 @@
       </c>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A42" s="91"/>
+      <c r="A42" s="93"/>
       <c r="B42" s="29" t="s">
         <v>8</v>
       </c>
@@ -23807,7 +24127,7 @@
       </c>
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A43" s="91"/>
+      <c r="A43" s="93"/>
       <c r="B43" s="29" t="s">
         <v>9</v>
       </c>
@@ -23825,7 +24145,7 @@
       </c>
     </row>
     <row r="44" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A44" s="91"/>
+      <c r="A44" s="93"/>
       <c r="B44" s="29" t="s">
         <v>10</v>
       </c>
@@ -23843,7 +24163,7 @@
       </c>
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A45" s="91"/>
+      <c r="A45" s="93"/>
       <c r="B45" s="29" t="s">
         <v>11</v>
       </c>
@@ -23861,7 +24181,7 @@
       </c>
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A46" s="91"/>
+      <c r="A46" s="93"/>
       <c r="B46" s="29" t="s">
         <v>12</v>
       </c>
@@ -23879,7 +24199,7 @@
       </c>
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A47" s="91"/>
+      <c r="A47" s="93"/>
       <c r="B47" s="29" t="s">
         <v>13</v>
       </c>
@@ -23897,7 +24217,7 @@
       </c>
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A48" s="91"/>
+      <c r="A48" s="93"/>
       <c r="B48" s="29" t="s">
         <v>43</v>
       </c>
@@ -23915,7 +24235,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="91"/>
+      <c r="A49" s="93"/>
       <c r="B49" s="29" t="s">
         <v>14</v>
       </c>
@@ -23933,7 +24253,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="91"/>
+      <c r="A50" s="93"/>
       <c r="B50" s="29" t="s">
         <v>15</v>
       </c>
@@ -23951,7 +24271,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="91"/>
+      <c r="A51" s="93"/>
       <c r="B51" s="29" t="s">
         <v>16</v>
       </c>
@@ -23969,7 +24289,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="91"/>
+      <c r="A52" s="93"/>
       <c r="B52" s="29" t="s">
         <v>17</v>
       </c>
@@ -23987,7 +24307,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="91"/>
+      <c r="A53" s="93"/>
       <c r="B53" s="29" t="s">
         <v>18</v>
       </c>
@@ -24005,7 +24325,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="91"/>
+      <c r="A54" s="93"/>
       <c r="B54" s="29" t="s">
         <v>19</v>
       </c>
@@ -24023,7 +24343,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="91"/>
+      <c r="A55" s="93"/>
       <c r="B55" s="37" t="s">
         <v>20</v>
       </c>
@@ -24049,7 +24369,7 @@
       <c r="F56" s="31"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="91" t="s">
+      <c r="A57" s="93" t="s">
         <v>3</v>
       </c>
       <c r="B57" s="38" t="s">
@@ -24069,7 +24389,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="91"/>
+      <c r="A58" s="93"/>
       <c r="B58" s="29" t="s">
         <v>21</v>
       </c>
@@ -24087,7 +24407,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="91"/>
+      <c r="A59" s="93"/>
       <c r="B59" s="29" t="s">
         <v>22</v>
       </c>
@@ -24105,7 +24425,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="91"/>
+      <c r="A60" s="93"/>
       <c r="B60" s="29" t="s">
         <v>42</v>
       </c>
@@ -24123,7 +24443,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="91"/>
+      <c r="A61" s="93"/>
       <c r="B61" s="29" t="s">
         <v>23</v>
       </c>
@@ -24133,7 +24453,7 @@
       <c r="F61" s="31"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="91"/>
+      <c r="A62" s="93"/>
       <c r="B62" s="29" t="s">
         <v>46</v>
       </c>
@@ -24151,7 +24471,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="91"/>
+      <c r="A63" s="93"/>
       <c r="B63" s="29" t="s">
         <v>24</v>
       </c>
@@ -24169,7 +24489,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="91"/>
+      <c r="A64" s="93"/>
       <c r="B64" s="29" t="s">
         <v>25</v>
       </c>
@@ -24179,7 +24499,7 @@
       <c r="F64" s="31"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="91"/>
+      <c r="A65" s="93"/>
       <c r="B65" s="29" t="s">
         <v>26</v>
       </c>
@@ -24197,7 +24517,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="91"/>
+      <c r="A66" s="93"/>
       <c r="B66" s="29" t="s">
         <v>27</v>
       </c>
@@ -24215,7 +24535,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="91"/>
+      <c r="A67" s="93"/>
       <c r="B67" s="29" t="s">
         <v>28</v>
       </c>
@@ -24233,7 +24553,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="91"/>
+      <c r="A68" s="93"/>
       <c r="B68" s="29" t="s">
         <v>29</v>
       </c>
@@ -24251,7 +24571,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="91"/>
+      <c r="A69" s="93"/>
       <c r="B69" s="29" t="s">
         <v>30</v>
       </c>
@@ -24269,7 +24589,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="91"/>
+      <c r="A70" s="93"/>
       <c r="B70" s="29" t="s">
         <v>31</v>
       </c>
@@ -24287,7 +24607,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="91"/>
+      <c r="A71" s="93"/>
       <c r="B71" s="29" t="s">
         <v>32</v>
       </c>
@@ -24306,6 +24626,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A38:R38"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A57:A71"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="R2:S2"/>
     <mergeCell ref="AY2:AZ2"/>
     <mergeCell ref="A4:A18"/>
     <mergeCell ref="A20:A34"/>
@@ -24322,15 +24651,6 @@
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A38:R38"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A57:A71"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="R2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24391,7 +24711,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="70" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -24414,7 +24734,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
@@ -24435,7 +24755,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="69"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
@@ -24456,7 +24776,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="69"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
@@ -24477,7 +24797,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
@@ -24498,7 +24818,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
@@ -24509,7 +24829,7 @@
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="69"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="9" t="s">
         <v>13</v>
       </c>
@@ -24530,7 +24850,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="69"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="9" t="s">
         <v>43</v>
       </c>
@@ -24551,7 +24871,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="69"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
@@ -24572,7 +24892,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="69"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="9" t="s">
         <v>15</v>
       </c>
@@ -24593,7 +24913,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="69"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="9" t="s">
         <v>16</v>
       </c>
@@ -24614,7 +24934,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="69"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
@@ -24635,7 +24955,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="9" t="s">
         <v>18</v>
       </c>
@@ -24656,7 +24976,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="9" t="s">
         <v>19</v>
       </c>
@@ -24677,7 +24997,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
+      <c r="A18" s="70"/>
       <c r="B18" s="9" t="s">
         <v>20</v>
       </c>
@@ -24706,7 +25026,7 @@
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="70" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -24729,7 +25049,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="9" t="s">
         <v>21</v>
       </c>
@@ -24750,7 +25070,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
+      <c r="A22" s="70"/>
       <c r="B22" s="9" t="s">
         <v>22</v>
       </c>
@@ -24771,7 +25091,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="69"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="9" t="s">
         <v>42</v>
       </c>
@@ -24792,7 +25112,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="69"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="9" t="s">
         <v>23</v>
       </c>
@@ -24813,7 +25133,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="69"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="9" t="s">
         <v>46</v>
       </c>
@@ -24824,7 +25144,7 @@
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="69"/>
+      <c r="A26" s="70"/>
       <c r="B26" s="9" t="s">
         <v>24</v>
       </c>
@@ -24845,7 +25165,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="69"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="9" t="s">
         <v>25</v>
       </c>
@@ -24866,7 +25186,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="69"/>
+      <c r="A28" s="70"/>
       <c r="B28" s="9" t="s">
         <v>26</v>
       </c>
@@ -24887,7 +25207,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="69"/>
+      <c r="A29" s="70"/>
       <c r="B29" s="9" t="s">
         <v>27</v>
       </c>
@@ -24908,7 +25228,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="69"/>
+      <c r="A30" s="70"/>
       <c r="B30" s="9" t="s">
         <v>28</v>
       </c>
@@ -24929,7 +25249,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="69"/>
+      <c r="A31" s="70"/>
       <c r="B31" s="9" t="s">
         <v>29</v>
       </c>
@@ -24950,7 +25270,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="69"/>
+      <c r="A32" s="70"/>
       <c r="B32" s="9" t="s">
         <v>30</v>
       </c>
@@ -24971,7 +25291,7 @@
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
+      <c r="A33" s="70"/>
       <c r="B33" s="9" t="s">
         <v>31</v>
       </c>
@@ -24992,7 +25312,7 @@
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
+      <c r="A34" s="70"/>
       <c r="B34" s="9" t="s">
         <v>32</v>
       </c>
@@ -25021,53 +25341,53 @@
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A37" s="77" t="s">
+      <c r="A37" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="B37" s="77"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C38" s="68" t="s">
+      <c r="C38" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="D38" s="68"/>
-      <c r="F38" s="68" t="s">
+      <c r="D38" s="69"/>
+      <c r="F38" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="G38" s="68"/>
-      <c r="I38" s="69" t="s">
+      <c r="G38" s="69"/>
+      <c r="I38" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="J38" s="69"/>
-      <c r="L38" s="69" t="s">
+      <c r="J38" s="70"/>
+      <c r="L38" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="M38" s="69"/>
-      <c r="O38" s="69" t="s">
+      <c r="M38" s="70"/>
+      <c r="O38" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="P38" s="69"/>
-      <c r="R38" s="69" t="s">
+      <c r="P38" s="70"/>
+      <c r="R38" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="S38" s="69"/>
-      <c r="U38" s="69" t="s">
+      <c r="S38" s="70"/>
+      <c r="U38" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="V38" s="69"/>
-      <c r="X38" s="69" t="s">
+      <c r="V38" s="70"/>
+      <c r="X38" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="Y38" s="69"/>
-      <c r="AA38" s="69" t="s">
+      <c r="Y38" s="70"/>
+      <c r="AA38" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="AB38" s="69"/>
+      <c r="AB38" s="70"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
@@ -25129,7 +25449,7 @@
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" s="69" t="s">
+      <c r="A40" s="70" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="20" t="s">
@@ -25193,7 +25513,7 @@
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A41" s="69"/>
+      <c r="A41" s="70"/>
       <c r="B41" s="20" t="s">
         <v>8</v>
       </c>
@@ -25251,7 +25571,7 @@
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A42" s="69"/>
+      <c r="A42" s="70"/>
       <c r="B42" s="20" t="s">
         <v>9</v>
       </c>
@@ -25313,7 +25633,7 @@
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A43" s="69"/>
+      <c r="A43" s="70"/>
       <c r="B43" s="20" t="s">
         <v>10</v>
       </c>
@@ -25375,7 +25695,7 @@
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A44" s="69"/>
+      <c r="A44" s="70"/>
       <c r="B44" s="20" t="s">
         <v>11</v>
       </c>
@@ -25437,7 +25757,7 @@
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A45" s="69"/>
+      <c r="A45" s="70"/>
       <c r="B45" s="20" t="s">
         <v>12</v>
       </c>
@@ -25463,7 +25783,7 @@
       <c r="AB45" s="14"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A46" s="69"/>
+      <c r="A46" s="70"/>
       <c r="B46" s="20" t="s">
         <v>13</v>
       </c>
@@ -25521,7 +25841,7 @@
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A47" s="69"/>
+      <c r="A47" s="70"/>
       <c r="B47" s="20" t="s">
         <v>43</v>
       </c>
@@ -25583,7 +25903,7 @@
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A48" s="69"/>
+      <c r="A48" s="70"/>
       <c r="B48" s="20" t="s">
         <v>14</v>
       </c>
@@ -25645,7 +25965,7 @@
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A49" s="69"/>
+      <c r="A49" s="70"/>
       <c r="B49" s="20" t="s">
         <v>15</v>
       </c>
@@ -25707,7 +26027,7 @@
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A50" s="69"/>
+      <c r="A50" s="70"/>
       <c r="B50" s="20" t="s">
         <v>16</v>
       </c>
@@ -25769,7 +26089,7 @@
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A51" s="69"/>
+      <c r="A51" s="70"/>
       <c r="B51" s="20" t="s">
         <v>17</v>
       </c>
@@ -25831,7 +26151,7 @@
       </c>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A52" s="69"/>
+      <c r="A52" s="70"/>
       <c r="B52" s="20" t="s">
         <v>18</v>
       </c>
@@ -25893,7 +26213,7 @@
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A53" s="69"/>
+      <c r="A53" s="70"/>
       <c r="B53" s="20" t="s">
         <v>19</v>
       </c>
@@ -25939,7 +26259,7 @@
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A54" s="69"/>
+      <c r="A54" s="70"/>
       <c r="B54" s="20" t="s">
         <v>20</v>
       </c>
@@ -26018,7 +26338,7 @@
       <c r="AB55" s="14"/>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A56" s="69" t="s">
+      <c r="A56" s="70" t="s">
         <v>3</v>
       </c>
       <c r="B56" s="20" t="s">
@@ -26080,7 +26400,7 @@
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A57" s="69"/>
+      <c r="A57" s="70"/>
       <c r="B57" s="20" t="s">
         <v>21</v>
       </c>
@@ -26140,7 +26460,7 @@
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A58" s="69"/>
+      <c r="A58" s="70"/>
       <c r="B58" s="20" t="s">
         <v>22</v>
       </c>
@@ -26200,7 +26520,7 @@
       </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A59" s="69"/>
+      <c r="A59" s="70"/>
       <c r="B59" s="20" t="s">
         <v>42</v>
       </c>
@@ -26260,7 +26580,7 @@
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A60" s="69"/>
+      <c r="A60" s="70"/>
       <c r="B60" s="20" t="s">
         <v>23</v>
       </c>
@@ -26320,7 +26640,7 @@
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A61" s="69"/>
+      <c r="A61" s="70"/>
       <c r="B61" s="20" t="s">
         <v>46</v>
       </c>
@@ -26344,7 +26664,7 @@
       <c r="AB61" s="14"/>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A62" s="69"/>
+      <c r="A62" s="70"/>
       <c r="B62" s="20" t="s">
         <v>24</v>
       </c>
@@ -26404,7 +26724,7 @@
       </c>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A63" s="69"/>
+      <c r="A63" s="70"/>
       <c r="B63" s="20" t="s">
         <v>25</v>
       </c>
@@ -26464,7 +26784,7 @@
       </c>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A64" s="69"/>
+      <c r="A64" s="70"/>
       <c r="B64" s="20" t="s">
         <v>26</v>
       </c>
@@ -26520,7 +26840,7 @@
       </c>
     </row>
     <row r="65" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A65" s="69"/>
+      <c r="A65" s="70"/>
       <c r="B65" s="20" t="s">
         <v>27</v>
       </c>
@@ -26580,7 +26900,7 @@
       </c>
     </row>
     <row r="66" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A66" s="69"/>
+      <c r="A66" s="70"/>
       <c r="B66" s="20" t="s">
         <v>28</v>
       </c>
@@ -26640,7 +26960,7 @@
       </c>
     </row>
     <row r="67" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A67" s="69"/>
+      <c r="A67" s="70"/>
       <c r="B67" s="20" t="s">
         <v>29</v>
       </c>
@@ -26700,7 +27020,7 @@
       </c>
     </row>
     <row r="68" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A68" s="69"/>
+      <c r="A68" s="70"/>
       <c r="B68" s="20" t="s">
         <v>30</v>
       </c>
@@ -26760,7 +27080,7 @@
       </c>
     </row>
     <row r="69" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A69" s="69"/>
+      <c r="A69" s="70"/>
       <c r="B69" s="20" t="s">
         <v>31</v>
       </c>
@@ -26816,7 +27136,7 @@
       </c>
     </row>
     <row r="70" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A70" s="69"/>
+      <c r="A70" s="70"/>
       <c r="B70" s="20" t="s">
         <v>32</v>
       </c>
@@ -26876,73 +27196,73 @@
       </c>
     </row>
     <row r="73" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A73" s="77" t="s">
+      <c r="A73" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="B73" s="77"/>
-      <c r="C73" s="77"/>
-      <c r="D73" s="77"/>
-      <c r="E73" s="77"/>
-      <c r="F73" s="77"/>
-      <c r="G73" s="77"/>
+      <c r="B73" s="78"/>
+      <c r="C73" s="78"/>
+      <c r="D73" s="78"/>
+      <c r="E73" s="78"/>
+      <c r="F73" s="78"/>
+      <c r="G73" s="78"/>
     </row>
     <row r="74" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="C74" s="68" t="s">
+      <c r="C74" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="D74" s="68"/>
-      <c r="F74" s="69" t="s">
+      <c r="D74" s="69"/>
+      <c r="F74" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="G74" s="69"/>
-      <c r="I74" s="69" t="s">
+      <c r="G74" s="70"/>
+      <c r="I74" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="J74" s="69"/>
-      <c r="L74" s="69" t="s">
+      <c r="J74" s="70"/>
+      <c r="L74" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="M74" s="69"/>
-      <c r="O74" s="69" t="s">
+      <c r="M74" s="70"/>
+      <c r="O74" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="P74" s="69"/>
-      <c r="R74" s="69" t="s">
+      <c r="P74" s="70"/>
+      <c r="R74" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="S74" s="69"/>
-      <c r="U74" s="69" t="s">
+      <c r="S74" s="70"/>
+      <c r="U74" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="V74" s="69"/>
-      <c r="X74" s="69" t="s">
+      <c r="V74" s="70"/>
+      <c r="X74" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="Y74" s="69"/>
-      <c r="AA74" s="69" t="s">
+      <c r="Y74" s="70"/>
+      <c r="AA74" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="AB74" s="69"/>
-      <c r="AD74" s="69" t="s">
+      <c r="AB74" s="70"/>
+      <c r="AD74" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="AE74" s="69"/>
-      <c r="AG74" s="69" t="s">
+      <c r="AE74" s="70"/>
+      <c r="AG74" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="AH74" s="69"/>
-      <c r="AJ74" s="69" t="s">
+      <c r="AH74" s="70"/>
+      <c r="AJ74" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="AK74" s="69"/>
-      <c r="AM74" s="69" t="s">
+      <c r="AK74" s="70"/>
+      <c r="AM74" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="AN74" s="69"/>
-      <c r="AP74" s="69" t="s">
+      <c r="AN74" s="70"/>
+      <c r="AP74" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="AQ74" s="69"/>
+      <c r="AQ74" s="70"/>
     </row>
     <row r="75" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B75" s="9" t="s">
@@ -27034,7 +27354,7 @@
       </c>
     </row>
     <row r="76" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A76" s="69" t="s">
+      <c r="A76" s="70" t="s">
         <v>2</v>
       </c>
       <c r="B76" s="20" t="s">
@@ -27127,7 +27447,7 @@
       </c>
     </row>
     <row r="77" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A77" s="69"/>
+      <c r="A77" s="70"/>
       <c r="B77" s="20" t="s">
         <v>8</v>
       </c>
@@ -27218,7 +27538,7 @@
       </c>
     </row>
     <row r="78" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A78" s="69"/>
+      <c r="A78" s="70"/>
       <c r="B78" s="20" t="s">
         <v>9</v>
       </c>
@@ -27309,7 +27629,7 @@
       </c>
     </row>
     <row r="79" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A79" s="69"/>
+      <c r="A79" s="70"/>
       <c r="B79" s="20" t="s">
         <v>10</v>
       </c>
@@ -27400,7 +27720,7 @@
       </c>
     </row>
     <row r="80" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A80" s="69"/>
+      <c r="A80" s="70"/>
       <c r="B80" s="20" t="s">
         <v>11</v>
       </c>
@@ -27491,7 +27811,7 @@
       </c>
     </row>
     <row r="81" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A81" s="69"/>
+      <c r="A81" s="70"/>
       <c r="B81" s="20" t="s">
         <v>12</v>
       </c>
@@ -27582,7 +27902,7 @@
       </c>
     </row>
     <row r="82" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A82" s="69"/>
+      <c r="A82" s="70"/>
       <c r="B82" s="20" t="s">
         <v>13</v>
       </c>
@@ -27673,7 +27993,7 @@
       </c>
     </row>
     <row r="83" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A83" s="69"/>
+      <c r="A83" s="70"/>
       <c r="B83" s="20" t="s">
         <v>43</v>
       </c>
@@ -27764,7 +28084,7 @@
       </c>
     </row>
     <row r="84" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A84" s="69"/>
+      <c r="A84" s="70"/>
       <c r="B84" s="20" t="s">
         <v>14</v>
       </c>
@@ -27855,7 +28175,7 @@
       </c>
     </row>
     <row r="85" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A85" s="69"/>
+      <c r="A85" s="70"/>
       <c r="B85" s="20" t="s">
         <v>15</v>
       </c>
@@ -27946,7 +28266,7 @@
       </c>
     </row>
     <row r="86" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A86" s="69"/>
+      <c r="A86" s="70"/>
       <c r="B86" s="20" t="s">
         <v>16</v>
       </c>
@@ -28037,7 +28357,7 @@
       </c>
     </row>
     <row r="87" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A87" s="69"/>
+      <c r="A87" s="70"/>
       <c r="B87" s="20" t="s">
         <v>17</v>
       </c>
@@ -28128,7 +28448,7 @@
       </c>
     </row>
     <row r="88" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A88" s="69"/>
+      <c r="A88" s="70"/>
       <c r="B88" s="20" t="s">
         <v>18</v>
       </c>
@@ -28219,7 +28539,7 @@
       </c>
     </row>
     <row r="89" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A89" s="69"/>
+      <c r="A89" s="70"/>
       <c r="B89" s="20" t="s">
         <v>19</v>
       </c>
@@ -28306,7 +28626,7 @@
       </c>
     </row>
     <row r="90" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A90" s="69"/>
+      <c r="A90" s="70"/>
       <c r="B90" s="20" t="s">
         <v>20</v>
       </c>
@@ -28429,7 +28749,7 @@
       <c r="AQ91" s="14"/>
     </row>
     <row r="92" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A92" s="69" t="s">
+      <c r="A92" s="70" t="s">
         <v>3</v>
       </c>
       <c r="B92" s="20" t="s">
@@ -28521,7 +28841,7 @@
       </c>
     </row>
     <row r="93" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A93" s="69"/>
+      <c r="A93" s="70"/>
       <c r="B93" s="20" t="s">
         <v>21</v>
       </c>
@@ -28611,7 +28931,7 @@
       </c>
     </row>
     <row r="94" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A94" s="69"/>
+      <c r="A94" s="70"/>
       <c r="B94" s="20" t="s">
         <v>22</v>
       </c>
@@ -28701,7 +29021,7 @@
       </c>
     </row>
     <row r="95" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A95" s="69"/>
+      <c r="A95" s="70"/>
       <c r="B95" s="20" t="s">
         <v>42</v>
       </c>
@@ -28791,7 +29111,7 @@
       </c>
     </row>
     <row r="96" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A96" s="69"/>
+      <c r="A96" s="70"/>
       <c r="B96" s="20" t="s">
         <v>23</v>
       </c>
@@ -28881,7 +29201,7 @@
       </c>
     </row>
     <row r="97" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A97" s="69"/>
+      <c r="A97" s="70"/>
       <c r="B97" s="20" t="s">
         <v>46</v>
       </c>
@@ -28971,7 +29291,7 @@
       </c>
     </row>
     <row r="98" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A98" s="69"/>
+      <c r="A98" s="70"/>
       <c r="B98" s="20" t="s">
         <v>24</v>
       </c>
@@ -29061,7 +29381,7 @@
       </c>
     </row>
     <row r="99" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A99" s="69"/>
+      <c r="A99" s="70"/>
       <c r="B99" s="20" t="s">
         <v>25</v>
       </c>
@@ -29151,7 +29471,7 @@
       </c>
     </row>
     <row r="100" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A100" s="69"/>
+      <c r="A100" s="70"/>
       <c r="B100" s="20" t="s">
         <v>26</v>
       </c>
@@ -29241,7 +29561,7 @@
       </c>
     </row>
     <row r="101" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A101" s="69"/>
+      <c r="A101" s="70"/>
       <c r="B101" s="20" t="s">
         <v>27</v>
       </c>
@@ -29331,7 +29651,7 @@
       </c>
     </row>
     <row r="102" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A102" s="69"/>
+      <c r="A102" s="70"/>
       <c r="B102" s="20" t="s">
         <v>28</v>
       </c>
@@ -29413,7 +29733,7 @@
       </c>
     </row>
     <row r="103" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A103" s="69"/>
+      <c r="A103" s="70"/>
       <c r="B103" s="20" t="s">
         <v>29</v>
       </c>
@@ -29503,7 +29823,7 @@
       </c>
     </row>
     <row r="104" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A104" s="69"/>
+      <c r="A104" s="70"/>
       <c r="B104" s="20" t="s">
         <v>30</v>
       </c>
@@ -29593,7 +29913,7 @@
       </c>
     </row>
     <row r="105" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A105" s="69"/>
+      <c r="A105" s="70"/>
       <c r="B105" s="20" t="s">
         <v>31</v>
       </c>
@@ -29683,7 +30003,7 @@
       </c>
     </row>
     <row r="106" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A106" s="69"/>
+      <c r="A106" s="70"/>
       <c r="B106" s="20" t="s">
         <v>32</v>
       </c>
@@ -29770,21 +30090,11 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A4:A18"/>
-    <mergeCell ref="A20:A34"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="AA38:AB38"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A73:G73"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="A40:A54"/>
-    <mergeCell ref="A56:A70"/>
+    <mergeCell ref="AD74:AE74"/>
+    <mergeCell ref="AG74:AH74"/>
+    <mergeCell ref="AJ74:AK74"/>
+    <mergeCell ref="AM74:AN74"/>
+    <mergeCell ref="AP74:AQ74"/>
     <mergeCell ref="AA74:AB74"/>
     <mergeCell ref="A76:A90"/>
     <mergeCell ref="A92:A106"/>
@@ -29796,11 +30106,21 @@
     <mergeCell ref="R74:S74"/>
     <mergeCell ref="U74:V74"/>
     <mergeCell ref="X74:Y74"/>
-    <mergeCell ref="AD74:AE74"/>
-    <mergeCell ref="AG74:AH74"/>
-    <mergeCell ref="AJ74:AK74"/>
-    <mergeCell ref="AM74:AN74"/>
-    <mergeCell ref="AP74:AQ74"/>
+    <mergeCell ref="AA38:AB38"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A73:G73"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="A40:A54"/>
+    <mergeCell ref="A56:A70"/>
+    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="A20:A34"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="X38:Y38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
